--- a/Parameters-Estimation/Ck_Parameters_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-ck-test-2019-model-k-10-old-configuration.xlsx
+++ b/Parameters-Estimation/Ck_Parameters_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-ck-test-2019-model-k-10-old-configuration.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>neural_network</t>
+  </si>
+  <si>
+    <t>old_model</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -152,123 +191,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0">
-        <v>50.407004332331702</v>
+        <v>50.912618681310462</v>
       </c>
       <c r="C2" s="0">
-        <v>0.42852868172682695</v>
+        <v>0.43282709726054003</v>
       </c>
       <c r="D2" s="0">
-        <v>38.044837745093929</v>
+        <v>38.469694995520697</v>
       </c>
       <c r="E2" s="0">
-        <v>0.36174194917781172</v>
+        <v>0.36903534952664963</v>
       </c>
       <c r="F2" s="0">
-        <v>0.60144987253952575</v>
+        <v>0.60748279772076641</v>
       </c>
       <c r="G2" s="0">
-        <v>0.60204141204102146</v>
+        <v>0.60876457539570772</v>
       </c>
       <c r="H2" s="0">
-        <v>0.63825805082218823</v>
+        <v>0.63096465047335037</v>
       </c>
       <c r="I2" s="0">
-        <v>0.80741227908322533</v>
+        <v>0.8016636574855327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0">
-        <v>50.711159968763319</v>
+        <v>49.417167662041138</v>
       </c>
       <c r="C3" s="0">
-        <v>0.43111442185652205</v>
+        <v>0.42011371223869937</v>
       </c>
       <c r="D3" s="0">
-        <v>37.848801794572047</v>
+        <v>36.811477558999442</v>
       </c>
       <c r="E3" s="0">
-        <v>0.36612061845154653</v>
+        <v>0.34767446765454485</v>
       </c>
       <c r="F3" s="0">
-        <v>0.6050790183534267</v>
+        <v>0.58963926909131892</v>
       </c>
       <c r="G3" s="0">
-        <v>0.59893923662227577</v>
+        <v>0.58252407534040018</v>
       </c>
       <c r="H3" s="0">
-        <v>0.63387938154845347</v>
+        <v>0.65232553234545509</v>
       </c>
       <c r="I3" s="0">
-        <v>0.8034939716155387</v>
+        <v>0.81400553741348491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0">
-        <v>49.730406965335696</v>
+        <v>54.401817069252665</v>
       </c>
       <c r="C4" s="0">
-        <v>0.42277667599708618</v>
+        <v>0.46249006980321078</v>
       </c>
       <c r="D4" s="0">
-        <v>38.766652081275602</v>
+        <v>39.202741455402894</v>
       </c>
       <c r="E4" s="0">
-        <v>0.35209602683320856</v>
+        <v>0.42135088396048764</v>
       </c>
       <c r="F4" s="0">
-        <v>0.59337680004631843</v>
+        <v>0.64911546273408682</v>
       </c>
       <c r="G4" s="0">
-        <v>0.61346377964573817</v>
+        <v>0.6203646860008859</v>
       </c>
       <c r="H4" s="0">
-        <v>0.64790397316679149</v>
+        <v>0.57864911603951241</v>
       </c>
       <c r="I4" s="0">
-        <v>0.8076532131994294</v>
+        <v>0.76941770635881213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0">
         <v>55.466271047222286</v>
